--- a/courseInfo.xlsx
+++ b/courseInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="27580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
   <si>
     <t>Courses</t>
   </si>
@@ -257,12 +257,6 @@
     <t>EE312,EE313</t>
   </si>
   <si>
-    <t>EE379K2</t>
-  </si>
-  <si>
-    <t>M340L,CS314/CS314H/EE360C,BME343/EE313,BME335/EE351K/M362K</t>
-  </si>
-  <si>
     <t>CS312/EE312</t>
   </si>
   <si>
@@ -345,6 +339,24 @@
   </si>
   <si>
     <t>EE445S/EE351M/EE360K</t>
+  </si>
+  <si>
+    <t>EE362G</t>
+  </si>
+  <si>
+    <t>EE368L/EE369</t>
+  </si>
+  <si>
+    <t>EE445M</t>
+  </si>
+  <si>
+    <t>EE445L/EE445S,ASE333T/BME333T/CHE333T/CE333T/EE333T/ME333T/PGE333T</t>
+  </si>
+  <si>
+    <t>EE460J</t>
+  </si>
+  <si>
+    <t>M340L,EE360C,EE313,EE351K,ASE333T/BME333T/CHE333T/CE333T/EE333T/ME333T/PGE333T</t>
   </si>
 </sst>
 </file>
@@ -674,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,56 +1060,56 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="3" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="3" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="3" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>80</v>
-      </c>
       <c r="B47" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C48" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -1105,21 +1117,18 @@
         <v>83</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -1127,7 +1136,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -1135,26 +1144,26 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>91</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="C53" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>93</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -1162,28 +1171,31 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>99</v>
-      </c>
       <c r="B57" s="3" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>63</v>
@@ -1194,7 +1206,7 @@
     </row>
     <row r="59" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>63</v>
@@ -1205,35 +1217,48 @@
     </row>
     <row r="60" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C61" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>104</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>86</v>
+    </row>
+    <row r="63" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
